--- a/@@QB.xlsx
+++ b/@@QB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="341">
   <si>
     <t>IP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,15 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>show version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">show environment </t>
-  </si>
-  <si>
-    <t>show tech system alarms list</t>
-  </si>
-  <si>
     <t>show environment fans</t>
   </si>
   <si>
@@ -257,21 +248,6 @@
   </si>
   <si>
     <t>show environment detailed</t>
-  </si>
-  <si>
-    <t>show storage disk volume size</t>
-  </si>
-  <si>
-    <t>show tech interfaces interface counters in-error-packets</t>
-  </si>
-  <si>
-    <t>show tech interfaces interface counters out-error-packets</t>
-  </si>
-  <si>
-    <t>show tech interfaces interface counters in-bits-rate</t>
-  </si>
-  <si>
-    <t>show tech interfaces interface counters out-bits-rate</t>
   </si>
   <si>
     <t>cBR8</t>
@@ -2463,6 +2439,50 @@
       </rPr>
       <t>.136.20</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*show running-config | include hostname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*show version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*show environment </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*show storage disk volume size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*show storage disk physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*show tech interfaces interface counters in-bits-rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*show tech interfaces interface counters out-bits-rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*show tech interfaces interface counters in-error-packets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*show tech interfaces interface counters out-error-packets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*show tech system alarms summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*show tech system alarms list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2470,7 +2490,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2588,8 +2608,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2599,6 +2633,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2616,7 +2656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2714,6 +2754,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3645,9 +3688,9 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="A14:D14"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3677,274 +3720,274 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3996,254 +4039,254 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4295,265 +4338,265 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="24" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>59</v>
@@ -4564,10 +4607,10 @@
         <v>60</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>59</v>
@@ -4575,27 +4618,27 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>59</v>
@@ -4773,7 +4816,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -4818,22 +4861,22 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -4843,7 +4886,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
@@ -4858,7 +4901,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
@@ -4878,12 +4921,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -4903,22 +4946,22 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
@@ -4928,22 +4971,22 @@
     </row>
     <row r="25" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
@@ -5155,11 +5198,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A18"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5174,88 +5217,103 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>61</v>
+      <c r="A2" s="37" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>62</v>
+      <c r="A3" s="37" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>63</v>
+      <c r="A4" s="37" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>65</v>
+      <c r="A5" s="37" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>66</v>
+      <c r="A7" s="37" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>283</v>
+      <c r="A8" s="37" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>67</v>
+      <c r="A9" s="37" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>284</v>
+      <c r="A10" s="37" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>285</v>
+      <c r="A11" s="39" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>286</v>
+      <c r="A12" s="37" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>288</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -5283,47 +5341,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -5331,22 +5389,22 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5379,42 +5437,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5462,13 +5520,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>59</v>
@@ -5476,13 +5534,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>59</v>
@@ -5490,13 +5548,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>59</v>
@@ -5507,10 +5565,10 @@
         <v>60</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>59</v>
@@ -5518,41 +5576,41 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>59</v>
@@ -5560,13 +5618,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>59</v>
@@ -5574,13 +5632,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>59</v>
@@ -5588,13 +5646,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>59</v>
@@ -5602,13 +5660,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>59</v>
@@ -5616,13 +5674,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>59</v>
@@ -5630,13 +5688,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>59</v>
@@ -5644,13 +5702,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>59</v>
@@ -5658,13 +5716,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>59</v>
@@ -5672,13 +5730,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>59</v>
@@ -5686,13 +5744,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>59</v>
@@ -5700,13 +5758,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>59</v>
@@ -5714,13 +5772,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>59</v>
@@ -5728,13 +5786,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>59</v>
@@ -5742,13 +5800,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>59</v>
@@ -5756,13 +5814,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>59</v>
@@ -5770,13 +5828,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>59</v>
@@ -5784,13 +5842,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>59</v>
@@ -5798,13 +5856,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>59</v>
@@ -5812,13 +5870,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>59</v>
@@ -5826,13 +5884,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>59</v>
@@ -5840,13 +5898,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>59</v>
@@ -5854,13 +5912,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>59</v>
@@ -5868,13 +5926,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>59</v>
@@ -5882,13 +5940,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>59</v>
@@ -5896,13 +5954,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>59</v>
@@ -5910,13 +5968,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>59</v>
@@ -5924,13 +5982,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>59</v>
@@ -5938,13 +5996,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>59</v>
@@ -5952,13 +6010,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>59</v>
@@ -5966,13 +6024,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>59</v>
@@ -5980,13 +6038,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>59</v>
@@ -5994,13 +6052,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>59</v>
@@ -6008,13 +6066,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>59</v>
@@ -6022,13 +6080,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>59</v>
@@ -6036,13 +6094,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>59</v>

--- a/@@QB.xlsx
+++ b/@@QB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="20520" windowHeight="4260" activeTab="5"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="20520" windowHeight="4260"/>
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="346">
   <si>
     <t>IP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2483,6 +2483,24 @@
   </si>
   <si>
     <t>*show tech system alarms list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDT_tech,idtech</t>
+  </si>
+  <si>
+    <t>IDT_tech,Idtech123</t>
+  </si>
+  <si>
+    <t>抓圖等待秒數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2490,7 +2508,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2622,6 +2640,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2656,7 +2687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2757,6 +2788,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3688,18 +3723,21 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.21875" style="35" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.21875" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="8.88671875" style="3"/>
+    <col min="5" max="5" width="16.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.88671875" style="3"/>
     <col min="12" max="12" width="29.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="3"/>
   </cols>
@@ -3717,6 +3755,15 @@
       <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
@@ -3833,7 +3880,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>306</v>
       </c>
@@ -3859,6 +3906,12 @@
       </c>
       <c r="D11" s="17" t="s">
         <v>264</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -5200,7 +5253,7 @@
   </sheetPr>
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
